--- a/biology/Médecine/Ostéo-intégration/Ostéo-intégration.xlsx
+++ b/biology/Médecine/Ostéo-intégration/Ostéo-intégration.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ost%C3%A9o-int%C3%A9gration</t>
+          <t>Ostéo-intégration</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ostéo-intégration (ou ostéointégration)  est la connexion structurelle et fonctionnelle directe entre l'os vivant et la surface d'un implant artificiel. Le terme provient du grec osteon (os) et du latin integrare (intégrer). L'Ostéo-intégration est aussi définie comme la formation d'un contact direct entre un implant et un os, sans utilisation de tissu mou [réf. nécessaire].
 Appliqué à l'implantologie orale, on parle d'intégration de l'implant dentaire dans l'os sans tissu mou interposé. Aucun cartilage ou ligament ne sont présents entre l'os et la surface de l'implant.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ost%C3%A9o-int%C3%A9gration</t>
+          <t>Ostéo-intégration</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette technique a été développée par le professeur Per-Ingvar Brånemark à Göteborg (Suède)[1] qui est considéré comme le père de l'implantologie[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette technique a été développée par le professeur Per-Ingvar Brånemark à Göteborg (Suède) qui est considéré comme le père de l'implantologie,.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ost%C3%A9o-int%C3%A9gration</t>
+          <t>Ostéo-intégration</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Procédures utilisant l'ostéointégration</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les implants dentaires ;
 Genou et joint remplacement ;
